--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>HL7 Norway</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Codes representing measurement method for blood pressure</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -333,48 +339,52 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -396,58 +406,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -111,16 +111,10 @@
     <t>Palpasjon</t>
   </si>
   <si>
-    <t>1*3</t>
+    <t>xxx</t>
   </si>
   <si>
     <t>Automatisk, non-invasivt</t>
-  </si>
-  <si>
-    <t>1*4</t>
-  </si>
-  <si>
-    <t>Automatisk, invasivt</t>
   </si>
   <si>
     <t/>
@@ -394,7 +388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +435,15 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -111,10 +111,16 @@
     <t>Palpasjon</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>1*3</t>
   </si>
   <si>
     <t>Automatisk, non-invasivt</t>
+  </si>
+  <si>
+    <t>1*4</t>
+  </si>
+  <si>
+    <t>Automatisk, invasivt</t>
   </si>
   <si>
     <t/>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,15 +441,23 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -111,16 +111,10 @@
     <t>Palpasjon</t>
   </si>
   <si>
-    <t>1*3</t>
+    <t>xxx</t>
   </si>
   <si>
     <t>Automatisk, non-invasivt</t>
-  </si>
-  <si>
-    <t>1*4</t>
-  </si>
-  <si>
-    <t>Automatisk, invasivt</t>
   </si>
   <si>
     <t/>
@@ -394,7 +388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +435,15 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -111,10 +111,16 @@
     <t>Palpasjon</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>1*3</t>
   </si>
   <si>
     <t>Automatisk, non-invasivt</t>
+  </si>
+  <si>
+    <t>1*4</t>
+  </si>
+  <si>
+    <t>Automatisk, invasivt</t>
   </si>
   <si>
     <t/>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,15 +441,23 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -111,16 +111,10 @@
     <t>Palpasjon</t>
   </si>
   <si>
-    <t>1*3</t>
+    <t>xxx</t>
   </si>
   <si>
     <t>Automatisk, non-invasivt</t>
-  </si>
-  <si>
-    <t>1*4</t>
-  </si>
-  <si>
-    <t>Automatisk, invasivt</t>
   </si>
   <si>
     <t/>
@@ -394,7 +388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -441,23 +435,15 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
+++ b/currentbuild/ValueSet-NoDomainVitalSignsObservationBloodPressureMeasurementMethodValue.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,10 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Norway</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://hl7.org/fhir)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -245,10 +242,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -333,52 +330,50 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -400,50 +395,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
